--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-0.15/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-0.15/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="934">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,742 +58,742 @@
     <t>killed</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>ban</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>greed</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>bbc</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>saying</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>questions</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>tired</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>fault</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>claim</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>stolen</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>ban</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>greed</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>pc</t>
-  </si>
-  <si>
-    <t>bbc</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>inventory</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>saying</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>questions</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>infection</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>wash</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>fault</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>ex</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
   </si>
   <si>
     <t>safe</t>
@@ -3181,10 +3181,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3242,7 +3242,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03178523116965552</v>
+        <v>0.03229274056700264</v>
       </c>
       <c r="C3">
         <v>136</v>
@@ -3263,7 +3263,7 @@
         <v>156</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>0.0105430914612757</v>
@@ -3292,7 +3292,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02128731259649728</v>
+        <v>0.02162720350776118</v>
       </c>
       <c r="C4">
         <v>61</v>
@@ -3313,7 +3313,7 @@
         <v>455</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
         <v>0.008872404885404424</v>
@@ -3342,7 +3342,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01123777625082272</v>
+        <v>0.01141720791901274</v>
       </c>
       <c r="C5">
         <v>17</v>
@@ -3363,7 +3363,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="K5">
         <v>0.008343939529433124</v>
@@ -3372,19 +3372,19 @@
         <v>176</v>
       </c>
       <c r="M5">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="N5">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3392,7 +3392,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01123777625082272</v>
+        <v>0.01141720791901274</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -3413,7 +3413,7 @@
         <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K6">
         <v>0.008248577088650415</v>
@@ -3442,7 +3442,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01055605269906748</v>
+        <v>0.01072459940288326</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -3463,7 +3463,7 @@
         <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="K7">
         <v>0.007855559334235606</v>
@@ -3472,19 +3472,19 @@
         <v>156</v>
       </c>
       <c r="M7">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="N7">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3492,7 +3492,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009441620563674005</v>
+        <v>0.00959237331852025</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>0.007415188817496604</v>
@@ -3542,28 +3542,28 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009039663468811169</v>
+        <v>0.00918399824286991</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
       <c r="D9">
-        <v>187</v>
+        <v>292</v>
       </c>
       <c r="E9">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F9">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>153</v>
+        <v>2815</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
         <v>0.006975371937424862</v>
@@ -3592,28 +3592,28 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.009039663468811169</v>
+        <v>0.008756598744273716</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="E10">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F10">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>2815</v>
+        <v>1934</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K10">
         <v>0.006744717036211234</v>
@@ -3642,28 +3642,28 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.008618980936881491</v>
+        <v>0.008307238976422576</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1934</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K11">
         <v>0.006475417083929407</v>
@@ -3692,13 +3692,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.008176683261035239</v>
+        <v>0.00783214001755413</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3710,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K12">
         <v>0.006352064509072362</v>
@@ -3742,7 +3742,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007709050908656735</v>
+        <v>0.00783214001755413</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -3760,10 +3760,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K13">
         <v>0.006289481066487334</v>
@@ -3792,13 +3792,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.007709050908656735</v>
+        <v>0.0073262961377323</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3810,10 +3810,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K14">
         <v>0.00622626859716063</v>
@@ -3842,28 +3842,28 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007211156819347959</v>
+        <v>0.0073262961377323</v>
       </c>
       <c r="C15">
         <v>7</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K15">
         <v>0.006097878135922405</v>
@@ -3892,25 +3892,25 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007211156819347959</v>
+        <v>0.0073262961377323</v>
       </c>
       <c r="C16">
         <v>7</v>
       </c>
       <c r="D16">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>0.95</v>
+        <v>0.73</v>
       </c>
       <c r="F16">
-        <v>0.05000000000000004</v>
+        <v>0.27</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>165</v>
+        <v>942</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>260</v>
@@ -3942,28 +3942,28 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.007211156819347959</v>
+        <v>0.006782832221198575</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>942</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K17">
         <v>0.005695367337606608</v>
@@ -3992,7 +3992,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006676233925964241</v>
+        <v>0.006782832221198575</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -4010,10 +4010,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K18">
         <v>0.005070741746106454</v>
@@ -4042,7 +4042,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006676233925964241</v>
+        <v>0.006782832221198575</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -4060,10 +4060,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19">
         <v>0.005070741746106454</v>
@@ -4092,7 +4092,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006676233925964241</v>
+        <v>0.006782832221198575</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -4110,10 +4110,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20">
         <v>0.004992120833272435</v>
@@ -4142,7 +4142,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006676233925964241</v>
+        <v>0.006782832221198575</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -4160,10 +4160,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K21">
         <v>0.004789926075599449</v>
@@ -4192,7 +4192,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006676233925964241</v>
+        <v>0.006782832221198575</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -4210,10 +4210,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K22">
         <v>0.004748454073574947</v>
@@ -4242,28 +4242,28 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006676233925964241</v>
+        <v>0.006782832221198575</v>
       </c>
       <c r="C23">
         <v>6</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>1090</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K23">
         <v>0.004706616658279436</v>
@@ -4292,25 +4292,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006676233925964241</v>
+        <v>0.006782832221198575</v>
       </c>
       <c r="C24">
         <v>6</v>
       </c>
       <c r="D24">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E24">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F24">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>1090</v>
+        <v>37</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>261</v>
@@ -4342,25 +4342,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006676233925964241</v>
+        <v>0.006782832221198575</v>
       </c>
       <c r="C25">
         <v>6</v>
       </c>
       <c r="D25">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E25">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F25">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>37</v>
+        <v>600</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>262</v>
@@ -4392,28 +4392,28 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006676233925964241</v>
+        <v>0.006191850352205551</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>162</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K26">
         <v>0.004171969764716562</v>
@@ -4442,28 +4442,28 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006676233925964241</v>
+        <v>0.006191850352205551</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>600</v>
+        <v>46</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K27">
         <v>0.004171969764716562</v>
@@ -4492,7 +4492,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006094539867386484</v>
+        <v>0.006191850352205551</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4510,10 +4510,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K28">
         <v>0.004124288544325208</v>
@@ -4542,7 +4542,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006094539867386484</v>
+        <v>0.006191850352205551</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4560,10 +4560,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K29">
         <v>0.004124288544325208</v>
@@ -4592,25 +4592,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006094539867386484</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>263</v>
@@ -4642,13 +4642,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006094539867386484</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4660,10 +4660,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K31">
         <v>0.003927779667117803</v>
@@ -4692,28 +4692,28 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C32">
         <v>4</v>
       </c>
       <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>5</v>
       </c>
-      <c r="E32">
-        <v>0.2</v>
-      </c>
-      <c r="F32">
-        <v>0.8</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>50</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K32">
         <v>0.003877096515766277</v>
@@ -4742,7 +4742,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4760,10 +4760,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K33">
         <v>0.003667366154222796</v>
@@ -4792,7 +4792,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -4810,10 +4810,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K34">
         <v>0.003557867769806075</v>
@@ -4842,7 +4842,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -4860,10 +4860,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K35">
         <v>0.003501834854268234</v>
@@ -4892,7 +4892,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K36">
         <v>0.003501834854268234</v>
@@ -4942,7 +4942,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K37">
         <v>0.003444890655116762</v>
@@ -4992,7 +4992,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>264</v>
@@ -5042,28 +5042,28 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K39">
         <v>0.003444890655116762</v>
@@ -5092,25 +5092,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>265</v>
@@ -5142,28 +5142,28 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="D41">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="E41">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F41">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>41</v>
+        <v>805</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K41">
         <v>0.003386989209438638</v>
@@ -5192,28 +5192,28 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C42">
         <v>4</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="E42">
-        <v>0.33</v>
+        <v>0.97</v>
       </c>
       <c r="F42">
-        <v>0.6699999999999999</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>42</v>
+        <v>3058</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K42">
         <v>0.003328080555514957</v>
@@ -5242,25 +5242,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C43">
         <v>4</v>
       </c>
       <c r="D43">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E43">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F43">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>805</v>
+        <v>33</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>266</v>
@@ -5292,28 +5292,28 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C44">
         <v>4</v>
       </c>
       <c r="D44">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>3058</v>
+        <v>12</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K44">
         <v>0.003207018668839128</v>
@@ -5342,25 +5342,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005451122174023493</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>267</v>
@@ -5392,13 +5392,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005451122174023493</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>268</v>
@@ -5442,7 +5442,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -5460,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K47">
         <v>0.003016329156393846</v>
@@ -5492,7 +5492,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>269</v>
@@ -5542,7 +5542,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>270</v>
@@ -5592,7 +5592,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>271</v>
@@ -5642,7 +5642,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -5660,10 +5660,10 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K51">
         <v>0.003016329156393846</v>
@@ -5692,7 +5692,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>272</v>
@@ -5742,7 +5742,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -5760,10 +5760,10 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K53">
         <v>0.002882202306916979</v>
@@ -5792,28 +5792,28 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>6</v>
+        <v>357</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K54">
         <v>0.002812741441572711</v>
@@ -5842,28 +5842,28 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>10</v>
+        <v>793</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K55">
         <v>0.002812741441572711</v>
@@ -5892,28 +5892,28 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
       <c r="D56">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="E56">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F56">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>357</v>
+        <v>798</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K56">
         <v>0.002741521237613071</v>
@@ -5942,28 +5942,28 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
       <c r="D57">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="E57">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F57">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>793</v>
+        <v>292</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K57">
         <v>0.002741521237613071</v>
@@ -5992,13 +5992,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E58">
         <v>0.97</v>
@@ -6010,10 +6010,10 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>798</v>
+        <v>15</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K58">
         <v>0.002668400827354556</v>
@@ -6042,28 +6042,28 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
       <c r="D59">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E59">
-        <v>0.91</v>
+        <v>0.25</v>
       </c>
       <c r="F59">
-        <v>0.08999999999999997</v>
+        <v>0.75</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>292</v>
+        <v>26</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K59">
         <v>0.002668400827354556</v>
@@ -6092,25 +6092,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>273</v>
@@ -6142,28 +6142,28 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C61">
         <v>3</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K61">
         <v>0.002593219476744969</v>
@@ -6192,7 +6192,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>274</v>
@@ -6242,7 +6242,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>275</v>
@@ -6292,7 +6292,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -6310,10 +6310,10 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K64">
         <v>0.002435905542679231</v>
@@ -6342,7 +6342,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>276</v>
@@ -6392,13 +6392,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.004720810281837002</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>277</v>
@@ -6442,13 +6442,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.004720810281837002</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>278</v>
@@ -6492,7 +6492,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -6510,10 +6510,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K68">
         <v>0.002353308329139718</v>
@@ -6542,7 +6542,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>279</v>
@@ -6592,7 +6592,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>280</v>
@@ -6642,7 +6642,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>281</v>
@@ -6692,7 +6692,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>282</v>
@@ -6742,7 +6742,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>283</v>
@@ -6792,7 +6792,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>284</v>
@@ -6842,7 +6842,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -6860,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>285</v>
@@ -6892,7 +6892,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -6910,10 +6910,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K76">
         <v>0.00217874015207971</v>
@@ -6942,7 +6942,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -6960,7 +6960,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>286</v>
@@ -6992,7 +6992,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -7010,10 +7010,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K78">
         <v>0.00217874015207971</v>
@@ -7042,7 +7042,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -7060,10 +7060,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K79">
         <v>0.002085984882358281</v>
@@ -7092,7 +7092,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7110,10 +7110,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K80">
         <v>0.002085984882358281</v>
@@ -7142,7 +7142,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>287</v>
@@ -7192,25 +7192,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>288</v>
@@ -7242,28 +7242,28 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K83">
         <v>0.002085984882358281</v>
@@ -7292,25 +7292,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E84">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F84">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>289</v>
@@ -7342,25 +7342,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
       <c r="D85">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E85">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F85">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>290</v>
@@ -7392,28 +7392,28 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
       <c r="D86">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E86">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F86">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K86">
         <v>0.002085984882358281</v>
@@ -7442,28 +7442,28 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
       <c r="D87">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E87">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F87">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K87">
         <v>0.001988908547060489</v>
@@ -7492,25 +7492,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
       <c r="D88">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E88">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F88">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>291</v>
@@ -7542,7 +7542,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -7560,7 +7560,7 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>292</v>
@@ -7592,28 +7592,28 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E90">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F90">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K90">
         <v>0.001988908547060489</v>
@@ -7642,25 +7642,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
       <c r="D91">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E91">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F91">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>293</v>
@@ -7692,28 +7692,28 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
       <c r="D92">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E92">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="F92">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K92">
         <v>0.001988908547060489</v>
@@ -7742,28 +7742,28 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
       <c r="D93">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E93">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F93">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K93">
         <v>0.001988908547060489</v>
@@ -7792,25 +7792,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
       <c r="D94">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E94">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F94">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>294</v>
@@ -7842,25 +7842,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E95">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F95">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>295</v>
@@ -7892,25 +7892,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E96">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="F96">
-        <v>0.09999999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>296</v>
@@ -7942,28 +7942,28 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="D97">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E97">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F97">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K97">
         <v>0.001988908547060489</v>
@@ -7992,25 +7992,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E98">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="F98">
-        <v>0.15</v>
+        <v>0.33</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>297</v>
@@ -8042,25 +8042,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="E99">
-        <v>0.78</v>
+        <v>0.98</v>
       </c>
       <c r="F99">
-        <v>0.22</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>298</v>
@@ -8092,28 +8092,28 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E100">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F100">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K100">
         <v>0.0018868443199462</v>
@@ -8142,25 +8142,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="E101">
-        <v>0.98</v>
+        <v>0.6</v>
       </c>
       <c r="F101">
-        <v>0.02000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>299</v>
@@ -8192,25 +8192,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E102">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="F102">
-        <v>0.07999999999999996</v>
+        <v>0.18</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>300</v>
@@ -8242,25 +8242,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E103">
-        <v>0.6</v>
+        <v>0.88</v>
       </c>
       <c r="F103">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>301</v>
@@ -8292,25 +8292,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E104">
-        <v>0.82</v>
+        <v>0.5</v>
       </c>
       <c r="F104">
-        <v>0.18</v>
+        <v>0.5</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>302</v>
@@ -8342,25 +8342,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="E105">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F105">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>303</v>
@@ -8392,25 +8392,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="D106">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E106">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="F106">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>31</v>
+        <v>532</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>304</v>
@@ -8442,25 +8442,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
       <c r="D107">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E107">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="F107">
-        <v>0.03000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>305</v>
@@ -8492,25 +8492,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E108">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="F108">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>532</v>
+        <v>14</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>306</v>
@@ -8542,28 +8542,28 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
       <c r="D109">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E109">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="F109">
-        <v>0.22</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K109">
         <v>0.0018868443199462</v>
@@ -8592,25 +8592,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
       <c r="D110">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E110">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>307</v>
@@ -8642,25 +8642,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.003854525454328368</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E111">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F111">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>6</v>
+        <v>234</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>308</v>
@@ -8692,13 +8692,13 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.003854525454328368</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K112">
         <v>0.0018868443199462</v>
@@ -8742,25 +8742,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>309</v>
@@ -8792,7 +8792,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>310</v>
@@ -8842,7 +8842,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8860,10 +8860,10 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K115">
         <v>0.001778933884903037</v>
@@ -8892,7 +8892,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8910,10 +8910,10 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K116">
         <v>0.001778933884903037</v>
@@ -8942,7 +8942,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8963,7 +8963,7 @@
         <v>6</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K117">
         <v>0.001778933884903037</v>
@@ -8992,7 +8992,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>311</v>
@@ -9042,7 +9042,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9060,10 +9060,10 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K119">
         <v>0.001778933884903037</v>
@@ -9092,7 +9092,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>312</v>
@@ -9142,7 +9142,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>313</v>
@@ -9192,7 +9192,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9210,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>314</v>
@@ -9242,7 +9242,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K123">
         <v>0.001778933884903037</v>
@@ -9292,7 +9292,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>315</v>
@@ -9342,7 +9342,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>316</v>
@@ -9392,7 +9392,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9410,10 +9410,10 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K126">
         <v>0.001664040277757479</v>
@@ -9442,7 +9442,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>317</v>
@@ -9492,7 +9492,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9510,10 +9510,10 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K128">
         <v>0.001664040277757479</v>
@@ -9542,7 +9542,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9592,7 +9592,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>319</v>
@@ -9642,25 +9642,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>320</v>
@@ -9692,25 +9692,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>321</v>
@@ -9742,7 +9742,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -9760,7 +9760,7 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>322</v>
@@ -9792,25 +9792,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E134">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>323</v>
@@ -9842,25 +9842,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>324</v>
@@ -9892,25 +9892,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>325</v>
@@ -9942,7 +9942,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>326</v>
@@ -9992,28 +9992,28 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E138">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F138">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K138">
         <v>0.001540601935978973</v>
@@ -10042,7 +10042,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10060,10 +10060,10 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K139">
         <v>0.001540601935978973</v>
@@ -10092,25 +10092,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>0.5</v>
+      </c>
+      <c r="F140">
+        <v>0.5</v>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140">
         <v>4</v>
-      </c>
-      <c r="E140">
-        <v>0.75</v>
-      </c>
-      <c r="F140">
-        <v>0.25</v>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140">
-        <v>20</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>327</v>
@@ -10142,25 +10142,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>328</v>
@@ -10192,7 +10192,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10210,10 +10210,10 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K142">
         <v>0.001540601935978973</v>
@@ -10242,25 +10242,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E143">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F143">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>8</v>
+        <v>353</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>329</v>
@@ -10292,28 +10292,28 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K144">
         <v>0.001540601935978973</v>
@@ -10342,25 +10342,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>353</v>
+        <v>5</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>330</v>
@@ -10392,25 +10392,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>331</v>
@@ -10442,25 +10442,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>332</v>
@@ -10492,25 +10492,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E148">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F148">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>333</v>
@@ -10542,25 +10542,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>334</v>
@@ -10592,25 +10592,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>335</v>
@@ -10642,7 +10642,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -10660,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>336</v>
@@ -10692,28 +10692,28 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K152">
         <v>0.001540601935978973</v>
@@ -10742,7 +10742,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>337</v>
@@ -10792,25 +10792,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>338</v>
@@ -10842,7 +10842,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -10860,10 +10860,10 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K155">
         <v>0.001540601935978973</v>
@@ -10892,28 +10892,28 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K156">
         <v>0.001540601935978973</v>
@@ -10942,7 +10942,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -10960,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>339</v>
@@ -10992,25 +10992,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="E158">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="F158">
-        <v>0.01000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>335</v>
+        <v>37</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>340</v>
@@ -11042,28 +11042,28 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K159">
         <v>0.001540601935978973</v>
@@ -11092,25 +11092,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E160">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F160">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>341</v>
@@ -11142,25 +11142,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E161">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F161">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>342</v>
@@ -11192,25 +11192,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E162">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="F162">
-        <v>0.08999999999999997</v>
+        <v>0.14</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>343</v>
@@ -11242,28 +11242,28 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E163">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F163">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K163">
         <v>0.001540601935978973</v>
@@ -11292,25 +11292,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E164">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F164">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>344</v>
@@ -11342,25 +11342,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E165">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="F165">
-        <v>0.17</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>345</v>
@@ -11392,25 +11392,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E166">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>346</v>
@@ -11442,25 +11442,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F167">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>347</v>
@@ -11492,25 +11492,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>348</v>
@@ -11542,25 +11542,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>349</v>
@@ -11592,7 +11592,7 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -11610,7 +11610,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>350</v>
@@ -11642,25 +11642,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>351</v>
@@ -11692,25 +11692,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>352</v>
@@ -11742,25 +11742,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>353</v>
@@ -11792,25 +11792,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>354</v>
@@ -11842,25 +11842,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>355</v>
@@ -11892,28 +11892,28 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E176">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F176">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K176">
         <v>0.001406370720786355</v>
@@ -11942,25 +11942,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E177">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F177">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>356</v>
@@ -11992,25 +11992,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E178">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F178">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>357</v>
@@ -12042,25 +12042,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E179">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F179">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>358</v>
@@ -12092,25 +12092,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>359</v>
@@ -12142,28 +12142,28 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K181">
         <v>0.001406370720786355</v>
@@ -12192,28 +12192,28 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K182">
         <v>0.001406370720786355</v>
@@ -12242,25 +12242,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>360</v>
@@ -12292,25 +12292,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E184">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F184">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>27</v>
+        <v>319</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>361</v>
@@ -12342,25 +12342,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>362</v>
@@ -12392,28 +12392,28 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E186">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F186">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>319</v>
+        <v>36</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K186">
         <v>0.001406370720786355</v>
@@ -12442,28 +12442,28 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K187">
         <v>0.001406370720786355</v>
@@ -12492,25 +12492,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E188">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F188">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>363</v>
@@ -12542,25 +12542,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="E189">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F189">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>364</v>
@@ -12592,28 +12592,28 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E190">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F190">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K190">
         <v>0.001406370720786355</v>
@@ -12642,25 +12642,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>365</v>
@@ -12692,28 +12692,28 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E192">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F192">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K192">
         <v>0.001406370720786355</v>
@@ -12742,7 +12742,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -12760,7 +12760,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>366</v>
@@ -12792,25 +12792,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E194">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F194">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>367</v>
@@ -12842,25 +12842,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>368</v>
@@ -12892,25 +12892,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E196">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F196">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>369</v>
@@ -12942,28 +12942,28 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E197">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F197">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K197">
         <v>0.001406370720786355</v>
@@ -12992,28 +12992,28 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E198">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F198">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K198">
         <v>0.001406370720786355</v>
@@ -13042,25 +13042,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E199">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F199">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>370</v>
@@ -13092,25 +13092,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E200">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F200">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>371</v>
@@ -13142,25 +13142,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E201">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F201">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>372</v>
@@ -13192,25 +13192,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E202">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F202">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>373</v>
@@ -13242,25 +13242,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E203">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F203">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>374</v>
@@ -13292,25 +13292,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="E204">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="F204">
-        <v>0.17</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>375</v>
@@ -13342,25 +13342,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E205">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F205">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>376</v>
@@ -13392,28 +13392,28 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K206">
         <v>0.001257896213297467</v>
@@ -13442,25 +13442,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E207">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F207">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>377</v>
@@ -13492,25 +13492,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>378</v>
@@ -13542,7 +13542,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13560,10 +13560,10 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K209">
         <v>0.001257896213297467</v>
@@ -13592,25 +13592,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E210">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F210">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>379</v>
@@ -13642,25 +13642,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E211">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F211">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>380</v>
@@ -13692,25 +13692,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E212">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F212">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>381</v>
@@ -13742,7 +13742,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -13760,10 +13760,10 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K213">
         <v>0.001257896213297467</v>
@@ -13792,28 +13792,28 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E214">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F214">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K214">
         <v>0.001257896213297467</v>
@@ -13842,25 +13842,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E215">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F215">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>382</v>
@@ -13892,25 +13892,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E216">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F216">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>383</v>
@@ -13942,25 +13942,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E217">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F217">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>25</v>
+        <v>527</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>384</v>
@@ -13992,25 +13992,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E218">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F218">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>385</v>
@@ -14042,25 +14042,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E219">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F219">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>527</v>
+        <v>218</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>386</v>
@@ -14092,25 +14092,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E220">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F220">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>387</v>
@@ -14142,25 +14142,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E221">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F221">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>218</v>
+        <v>2</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>388</v>
@@ -14192,25 +14192,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E222">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F222">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>389</v>
@@ -14242,25 +14242,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E223">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F223">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>390</v>
@@ -14292,25 +14292,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E224">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>391</v>
@@ -14342,25 +14342,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E225">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>392</v>
@@ -14392,25 +14392,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>393</v>
@@ -14442,25 +14442,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>394</v>
@@ -14492,25 +14492,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E228">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F228">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>395</v>
@@ -14542,25 +14542,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E229">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F229">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>396</v>
@@ -14592,25 +14592,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E230">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="F230">
-        <v>0.09999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>397</v>
@@ -14642,25 +14642,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E231">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F231">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>398</v>
@@ -14692,25 +14692,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E232">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F232">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>399</v>
@@ -14742,25 +14742,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E233">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F233">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>400</v>
@@ -14792,25 +14792,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E234">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H234">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>401</v>
@@ -14842,25 +14842,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E235">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F235">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>402</v>
@@ -14892,28 +14892,28 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K236">
         <v>0.001257896213297467</v>
@@ -14942,25 +14942,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E237">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F237">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>403</v>
@@ -14992,25 +14992,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E238">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F238">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>404</v>
@@ -15042,7 +15042,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15060,7 +15060,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>405</v>
@@ -15092,25 +15092,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E240">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F240">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>406</v>
@@ -15142,25 +15142,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>407</v>
@@ -15192,25 +15192,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E242">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H242">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>408</v>
@@ -15242,7 +15242,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15260,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>409</v>
@@ -15292,7 +15292,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15310,7 +15310,7 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>410</v>
@@ -15342,7 +15342,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15360,7 +15360,7 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>411</v>
@@ -15392,7 +15392,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15410,10 +15410,10 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K246">
         <v>0.001257896213297467</v>
@@ -15442,7 +15442,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15460,7 +15460,7 @@
         <v>0</v>
       </c>
       <c r="H247">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>412</v>
@@ -15492,7 +15492,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15510,7 +15510,7 @@
         <v>0</v>
       </c>
       <c r="H248">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>413</v>
@@ -15542,7 +15542,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15560,7 +15560,7 @@
         <v>0</v>
       </c>
       <c r="H249">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>414</v>
@@ -15592,7 +15592,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -15610,7 +15610,7 @@
         <v>0</v>
       </c>
       <c r="H250">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>415</v>
@@ -15642,7 +15642,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -15660,10 +15660,10 @@
         <v>0</v>
       </c>
       <c r="H251">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K251">
         <v>0.001257896213297467</v>
@@ -15692,7 +15692,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -15710,7 +15710,7 @@
         <v>0</v>
       </c>
       <c r="H252">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>416</v>
@@ -15738,30 +15738,6 @@
       </c>
     </row>
     <row r="253" spans="1:17">
-      <c r="A253" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B253">
-        <v>0.002725561087011746</v>
-      </c>
-      <c r="C253">
-        <v>1</v>
-      </c>
-      <c r="D253">
-        <v>1</v>
-      </c>
-      <c r="E253">
-        <v>0</v>
-      </c>
-      <c r="F253">
-        <v>1</v>
-      </c>
-      <c r="G253" t="b">
-        <v>0</v>
-      </c>
-      <c r="H253">
-        <v>31</v>
-      </c>
       <c r="J253" s="1" t="s">
         <v>417</v>
       </c>
@@ -15788,30 +15764,6 @@
       </c>
     </row>
     <row r="254" spans="1:17">
-      <c r="A254" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B254">
-        <v>0.002725561087011746</v>
-      </c>
-      <c r="C254">
-        <v>1</v>
-      </c>
-      <c r="D254">
-        <v>1</v>
-      </c>
-      <c r="E254">
-        <v>0</v>
-      </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-      <c r="G254" t="b">
-        <v>0</v>
-      </c>
-      <c r="H254">
-        <v>21</v>
-      </c>
       <c r="J254" s="1" t="s">
         <v>418</v>
       </c>
@@ -15891,7 +15843,7 @@
     </row>
     <row r="257" spans="10:17">
       <c r="J257" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K257">
         <v>0.001089370076039855</v>
@@ -16307,7 +16259,7 @@
     </row>
     <row r="273" spans="10:17">
       <c r="J273" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K273">
         <v>0.001089370076039855</v>
@@ -16437,7 +16389,7 @@
     </row>
     <row r="278" spans="10:17">
       <c r="J278" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K278">
         <v>0.001089370076039855</v>
@@ -16541,7 +16493,7 @@
     </row>
     <row r="282" spans="10:17">
       <c r="J282" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K282">
         <v>0.001089370076039855</v>
@@ -16671,7 +16623,7 @@
     </row>
     <row r="287" spans="10:17">
       <c r="J287" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K287">
         <v>0.001089370076039855</v>
@@ -16723,7 +16675,7 @@
     </row>
     <row r="289" spans="10:17">
       <c r="J289" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K289">
         <v>0.001089370076039855</v>
@@ -16801,7 +16753,7 @@
     </row>
     <row r="292" spans="10:17">
       <c r="J292" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K292">
         <v>0.001089370076039855</v>
@@ -16827,7 +16779,7 @@
     </row>
     <row r="293" spans="10:17">
       <c r="J293" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K293">
         <v>0.001089370076039855</v>
@@ -16957,7 +16909,7 @@
     </row>
     <row r="298" spans="10:17">
       <c r="J298" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K298">
         <v>0.001089370076039855</v>
@@ -17061,7 +17013,7 @@
     </row>
     <row r="302" spans="10:17">
       <c r="J302" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K302">
         <v>0.001089370076039855</v>
@@ -17633,7 +17585,7 @@
     </row>
     <row r="324" spans="10:17">
       <c r="J324" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K324">
         <v>0.001089370076039855</v>
@@ -17945,7 +17897,7 @@
     </row>
     <row r="336" spans="10:17">
       <c r="J336" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K336">
         <v>0.0008894669424515186</v>
@@ -18075,7 +18027,7 @@
     </row>
     <row r="341" spans="10:17">
       <c r="J341" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K341">
         <v>0.0008894669424515186</v>
@@ -18491,7 +18443,7 @@
     </row>
     <row r="357" spans="10:17">
       <c r="J357" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K357">
         <v>0.0008894669424515186</v>
@@ -18621,7 +18573,7 @@
     </row>
     <row r="362" spans="10:17">
       <c r="J362" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K362">
         <v>0.0008894669424515186</v>
@@ -19063,7 +19015,7 @@
     </row>
     <row r="379" spans="10:17">
       <c r="J379" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K379">
         <v>0.0008894669424515186</v>
@@ -19115,7 +19067,7 @@
     </row>
     <row r="381" spans="10:17">
       <c r="J381" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K381">
         <v>0.0008894669424515186</v>
@@ -19167,7 +19119,7 @@
     </row>
     <row r="383" spans="10:17">
       <c r="J383" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K383">
         <v>0.0008894669424515186</v>
@@ -19375,7 +19327,7 @@
     </row>
     <row r="391" spans="10:17">
       <c r="J391" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K391">
         <v>0.0008894669424515186</v>
@@ -19973,7 +19925,7 @@
     </row>
     <row r="414" spans="10:17">
       <c r="J414" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K414">
         <v>0.0008894669424515186</v>
@@ -20155,7 +20107,7 @@
     </row>
     <row r="421" spans="10:17">
       <c r="J421" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K421">
         <v>0.0008894669424515186</v>
@@ -20207,7 +20159,7 @@
     </row>
     <row r="423" spans="10:17">
       <c r="J423" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K423">
         <v>0.0008894669424515186</v>
@@ -20415,7 +20367,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K431">
         <v>0.0008894669424515186</v>
@@ -20571,7 +20523,7 @@
     </row>
     <row r="437" spans="10:17">
       <c r="J437" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K437">
         <v>0.0008894669424515186</v>
@@ -20597,7 +20549,7 @@
     </row>
     <row r="438" spans="10:17">
       <c r="J438" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K438">
         <v>0.0008894669424515186</v>
@@ -21065,7 +21017,7 @@
     </row>
     <row r="456" spans="10:17">
       <c r="J456" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K456">
         <v>0.0008894669424515186</v>
@@ -21533,7 +21485,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K474">
         <v>0.0008894669424515186</v>
@@ -22131,7 +22083,7 @@
     </row>
     <row r="497" spans="10:17">
       <c r="J497" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K497">
         <v>0.0006289481066487334</v>
@@ -22833,7 +22785,7 @@
     </row>
     <row r="524" spans="10:17">
       <c r="J524" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K524">
         <v>0.0006289481066487334</v>
@@ -23821,7 +23773,7 @@
     </row>
     <row r="562" spans="10:17">
       <c r="J562" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K562">
         <v>0.0006289481066487334</v>
@@ -24081,7 +24033,7 @@
     </row>
     <row r="572" spans="10:17">
       <c r="J572" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K572">
         <v>0.0006289481066487334</v>
@@ -24627,7 +24579,7 @@
     </row>
     <row r="593" spans="10:17">
       <c r="J593" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K593">
         <v>0.0006289481066487334</v>
@@ -25095,7 +25047,7 @@
     </row>
     <row r="611" spans="10:17">
       <c r="J611" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K611">
         <v>0.0006289481066487334</v>
@@ -25433,7 +25385,7 @@
     </row>
     <row r="624" spans="10:17">
       <c r="J624" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K624">
         <v>0.0006289481066487334</v>
@@ -26109,7 +26061,7 @@
     </row>
     <row r="650" spans="10:17">
       <c r="J650" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K650">
         <v>0.0006289481066487334</v>
@@ -26681,7 +26633,7 @@
     </row>
     <row r="672" spans="10:17">
       <c r="J672" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K672">
         <v>0.0006289481066487334</v>
@@ -26733,7 +26685,7 @@
     </row>
     <row r="674" spans="10:17">
       <c r="J674" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K674">
         <v>0.0006289481066487334</v>
@@ -26811,7 +26763,7 @@
     </row>
     <row r="677" spans="10:17">
       <c r="J677" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K677">
         <v>0.0006289481066487334</v>
@@ -27825,7 +27777,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K716">
         <v>0.0006289481066487334</v>
@@ -30113,7 +30065,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K804">
         <v>0.0006289481066487334</v>
@@ -30321,7 +30273,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K812">
         <v>0.0006289481066487334</v>
